--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sspring963\Documents\UiPath\UiPath_P3\uipath-automation-9\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +84,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>ProcessABCQueue</t>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -122,12 +114,45 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>InternalHireInstallBot</t>
+  </si>
+  <si>
+    <t>Download and Install Relevant Technologies Based on User Input</t>
+  </si>
+  <si>
+    <t>Status_Success</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Status message for TransactionData to record successful transaction.</t>
+  </si>
+  <si>
+    <t>Status_Failure</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Status message for TransactionData to record failed transaction.</t>
+  </si>
+  <si>
+    <t>Status_Pending</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Status message for TransactionData to record pending transaction.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -139,6 +164,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -496,19 +522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -547,25 +573,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1569,17 +1595,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1644,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1670,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1681,7 +1709,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,15 +1720,45 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2679,19 +2737,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2702,7 +2760,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bldav\OneDrive\Documents\UiPath\uipath-automation-9\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15CB256-16C9-431A-9C5E-6561F931FE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32295" yWindow="315" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,15 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
+  <si>
+    <t>Credential used to sign into the Outlook account</t>
+  </si>
+  <si>
+    <t>Office_Credential</t>
+  </si>
+  <si>
+    <t>Office_Crednetial</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -182,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,16 +511,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -557,7 +569,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="29">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -569,7 +581,17 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1572,14 +1594,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1640,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2682,16 +2706,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
